--- a/data/chase7022_activity_Y2023.xlsx
+++ b/data/chase7022_activity_Y2023.xlsx
@@ -1,63 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbnostix\Documents\Accounting\2023\chase7022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0ED521-5E1C-4546-ADB0-47049E4A14A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D0475-46B3-490D-8B4B-7A0281C787AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="2565" windowWidth="17040" windowHeight="10185"/>
+    <workbookView xWindow="33840" yWindow="2430" windowWidth="20850" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chase6390_Activity20230101_2023" sheetId="1" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId1"/>
+    <sheet name="Chase6390_Activity20230101_2023" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Post Date</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Memo</t>
-  </si>
-  <si>
     <t>AUTOMATIC PAYMENT - THANK</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>UNITED      0164241321351</t>
   </si>
   <si>
     <t>Travel</t>
   </si>
   <si>
-    <t>Sale</t>
-  </si>
-  <si>
     <t>UNITED      0164241320506</t>
   </si>
   <si>
@@ -76,23 +78,32 @@
     <t>SP GREENWORKSTOOLS</t>
   </si>
   <si>
-    <t>Shopping</t>
-  </si>
-  <si>
     <t>ANNUAL MEMBERSHIP FEE</t>
   </si>
   <si>
     <t>Fees &amp; Adjustments</t>
   </si>
   <si>
-    <t>Fee</t>
+    <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Maintenance Equipment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,9 +580,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -628,6 +644,165 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lpres" refreshedDate="45551.599887731485" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{43E50D76-EBFC-4ADA-8828-C6140C45CE10}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D11" sheet="Chase6390_Activity20230101_2023"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Transaction Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-05-01T00:00:00" maxDate="2023-11-11T00:00:00"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <m/>
+        <s v="Travel"/>
+        <s v="Bills &amp; Utilities"/>
+        <s v="Maintenance Equipment"/>
+        <s v="Fees &amp; Adjustments"/>
+        <s v="Shopping" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-5069.97" maxValue="5069.97"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <d v="2023-11-10T00:00:00"/>
+    <s v="AUTOMATIC PAYMENT - THANK"/>
+    <x v="0"/>
+    <n v="504.11"/>
+  </r>
+  <r>
+    <d v="2023-09-26T00:00:00"/>
+    <s v="UNITED      0164241321351"/>
+    <x v="1"/>
+    <n v="-30"/>
+  </r>
+  <r>
+    <d v="2023-09-26T00:00:00"/>
+    <s v="UNITED      0164241320506"/>
+    <x v="1"/>
+    <n v="-26"/>
+  </r>
+  <r>
+    <d v="2023-09-26T00:00:00"/>
+    <s v="UNITED      0164241320505"/>
+    <x v="1"/>
+    <n v="-35"/>
+  </r>
+  <r>
+    <d v="2023-09-26T00:00:00"/>
+    <s v="TRAVEL GUARD GROUP INC"/>
+    <x v="2"/>
+    <n v="-25.21"/>
+  </r>
+  <r>
+    <d v="2023-09-26T00:00:00"/>
+    <s v="UNITED      0162329781141"/>
+    <x v="1"/>
+    <n v="-387.9"/>
+  </r>
+  <r>
+    <d v="2023-09-10T00:00:00"/>
+    <s v="AUTOMATIC PAYMENT - THANK"/>
+    <x v="0"/>
+    <n v="5069.97"/>
+  </r>
+  <r>
+    <d v="2023-07-20T00:00:00"/>
+    <s v="SP GREENWORKSTOOLS"/>
+    <x v="3"/>
+    <n v="-5069.97"/>
+  </r>
+  <r>
+    <d v="2023-06-09T00:00:00"/>
+    <s v="AUTOMATIC PAYMENT - THANK"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <s v="ANNUAL MEMBERSHIP FEE"/>
+    <x v="4"/>
+    <n v="-95"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0576CBBC-EA82-4094-B56B-F9EB95615EDB}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,24 +1121,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E73CB4-57F8-4C27-9B67-81D616251E92}">
+  <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-25.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-478.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5669.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-5069.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,208 +1224,135 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>45240</v>
       </c>
-      <c r="B2" s="1">
-        <v>45240</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>504.11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>45195</v>
       </c>
-      <c r="B3" s="1">
-        <v>45196</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>-30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>45195</v>
       </c>
-      <c r="B4" s="1">
-        <v>45196</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>-26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>45195</v>
       </c>
-      <c r="B5" s="1">
-        <v>45196</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>-35</v>
       </c>
-      <c r="H5">
-        <f>SUM(F3:F7)</f>
-        <v>-504.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>45195</v>
       </c>
-      <c r="B6" s="1">
-        <v>45196</v>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="D6">
         <v>-25.21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>45195</v>
       </c>
-      <c r="B7" s="1">
-        <v>45196</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>-387.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>45179</v>
       </c>
-      <c r="B8" s="1">
-        <v>45179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>5069.97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>45127</v>
       </c>
-      <c r="B9" s="1">
-        <v>45128</v>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>-5069.97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>45086</v>
       </c>
-      <c r="B10" s="1">
-        <v>45086</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>45047</v>
       </c>
-      <c r="B11" s="1">
-        <v>45047</v>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="D11">
         <v>-95</v>
       </c>
     </row>
